--- a/_site/Data/SupportFamHealth.xlsx
+++ b/_site/Data/SupportFamHealth.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akunerth/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akunerth/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AAE6FF-594D-A24A-871B-D19420BBE72E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F78DA22-46E9-5346-AFD0-49068D4E010B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="460" windowWidth="24740" windowHeight="15540" xr2:uid="{8A673D2B-23AC-4849-B85E-D6BED00A64B1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <t>Question</t>
   </si>
@@ -36,8 +36,20 @@
     <t>Past</t>
   </si>
   <si>
+    <t xml:space="preserve">Please rate how helpful each of the services you have accessed online/digitally on a scale of 0-5 </t>
+  </si>
+  <si>
+    <t>Occurrence</t>
+  </si>
+  <si>
+    <t>Answers</t>
+  </si>
+  <si>
     <t xml:space="preserve">Have you accessed any of the following services/content in an online/digital format during the COVID-19 pandemic? 
-• Medical care for yourself 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Medical care for yourself 
 • Medical care for your child 
 • Mental health care 
 • Parenting support 
@@ -48,57 +60,71 @@
   </si>
   <si>
     <t xml:space="preserve">When you accessed [based on answer from above], was it digitally/online? 
-• Yes 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes 
 • No 
 • Not applicable </t>
   </si>
   <si>
     <t xml:space="preserve">[if accessed medical care for yourself, medical care for your child, or mental healthcare online/digitally] How does a telehealth visit compare to an office visit in terms of: Comfort discussing sensitive topics… 
-• Telehealth visit better 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Telehealth visit better 
 • Doctor visit better 
 • Telehealth/office visit about the same. </t>
   </si>
   <si>
     <t xml:space="preserve">[if accessed parenting support, fitness classes, educational courses, library or other enrichment programs, or other online/digitally] Please rate how helpful each of the services you have accessed online/digitally are currently: 
-• More helpful than an in-person resource 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• More helpful than an in-person resource 
 • In-person resource would be more helpful 
 • Virtual/Online and in-person are about the same 
 • N/A </t>
   </si>
   <si>
-    <t xml:space="preserve">Please rate how helpful each of the services you have accessed online/digitally on a scale of 0-5 </t>
+    <t>• Scale: 0 - 5</t>
   </si>
   <si>
     <t xml:space="preserve">Since the coronavirus (COVID-19) pandemic, have you delayed getting medical care (including physical or mental health visits) for any of the following reasons? Indicate how many times each of these barriers has delayed you getting medical care (including physical or mental health visits), leave blank or select 0 if a listed barrier has not delayed you. 
-• Cost [Scale 0-10]  
+  </t>
+  </si>
+  <si>
+    <t>• Cost [Scale 0-10]  
 • Unable to get time away from work [Scale 0-10]  
 • Inability to find childcare [Scale 0-10]  
 • Concern over exposure to coronavirus (COVID-19) [Scale 0-10]  
 • Caring for family members [Scale 0-10]  
-• Other, please describe: [Scale 0-10]  </t>
+• Other, please describe: [Scale 0-10]</t>
   </si>
   <si>
     <t xml:space="preserve">Have you missed a well-baby checkup since the coronavirus (COVID-19) pandemic began? 
-• Yes 
-• No 
-• Not applicable </t>
+</t>
   </si>
   <si>
     <t xml:space="preserve">[If no did not miss] Did you attend your well-baby/child checkup online/digitally? 
-• Yes 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes 
 • No, there was an online/digital option, but I chose to attend the checkup in person 
 • No, there was not an online/digital option 
 • Other, please describe: </t>
   </si>
   <si>
     <t xml:space="preserve">[If yes attended digitally] How does a well-baby/child visit compare to an in-person well-baby/child checkup in terms of: Comfort discussing sensitive topics… 
-• Telehealth visit better 
-• Doctor visit better 
-• Telehealth/office visit about the same. </t>
+</t>
   </si>
   <si>
     <t xml:space="preserve">[If yes missed] [asked for up to five children] In regards to your oldest child in the 0-5 age range that missed a well-baby/well-child checkup: Which well-baby/well-child visit did they miss? 
-• First visit [3-5 days old] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• First visit [3-5 days old] 
 • 1 month old 
 • 2 months old 
 • 4 months old 
@@ -115,12 +141,18 @@
   </si>
   <si>
     <t xml:space="preserve">[If yes missed] [asked for up to five children] Did they miss a scheduled vaccine at this visit? 
-• Yes 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes 
 • No </t>
   </si>
   <si>
     <t xml:space="preserve">What prevented you from going to a well-baby checkup? 
-• Cost 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Cost 
 • Unable to get time away from work 
 • Inability to find childcare 
 • Concern over exposure to coronavirus (COVID-19) 
@@ -130,7 +162,10 @@
   </si>
   <si>
     <t xml:space="preserve">Does your child have any of the following disabilities? 
-• Blind or serious difficulty seeing even when wearing glasses 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Blind or serious difficulty seeing even when wearing glasses 
 • Serious difficulty walking or climbing stairs 
 • Due to a physical, mental, or emotional problem, difficulty remembering, concentrating, or making decisions 
 • Other disabilities 
@@ -139,21 +174,24 @@
   </si>
   <si>
     <t xml:space="preserve">If your child has a disability, did you receive early intervention services prior to the coronavirus (COVID-19) pandemic? (Ex. These are programs and services delivered by the state to help support babies and young children with developmental delays and disabilities, as well as their families.) 
-• Yes 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes 
 • No 
 • Unsure 
 • Other [Text entry] </t>
   </si>
   <si>
     <t xml:space="preserve">Since the coronavirus (COVID-19) pandemic, have you been able to access early intervention services for your child(ren)? 
-• Yes 
-• No 
-• Unsure 
-• Other [Text entry] </t>
+</t>
   </si>
   <si>
     <t xml:space="preserve">Does your child need early intervention services because they are experiencing delay in one or more of these areas? Select all that apply.  
-• Cognitive development. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Cognitive development. 
 • Physical development, including vision and hearing. 
 • Communication development. 
 • Social or emotional development. 
@@ -164,7 +202,10 @@
   </si>
   <si>
     <t xml:space="preserve">Does your child need early intervention services because they have been diagnosed with one or more of the following physical or mental conditions? Select all that apply.  
-• chromosomal abnormalities 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• chromosomal abnormalities 
 • genetic or congenital disorders 
 • sensory impairments 
 • inborn errors of metabolism 
@@ -178,27 +219,39 @@
   </si>
   <si>
     <t xml:space="preserve">Have you been suspected or diagnosed with coronavirus (COVID-19)? 
-• Yes, suspected 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes, suspected 
 • Yes, diagnosed with a positive test result 
 • Yes, diagnosed by a healthcare professional or public health official without a test 
 • No </t>
   </si>
   <si>
     <t xml:space="preserve">To the best of your knowledge, why did you not have a test for coronavirus (COVID-19)? 
-• Test not available (ex. not enough supplies) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Test not available (ex. not enough supplies) 
 • Didn't meet testing criteria (ex. some states only test those with symptoms, and who are hospitalized) 
 • Physician or Public Health Official did not recommend a test 
 • Other </t>
   </si>
   <si>
     <t xml:space="preserve">Have you been hospitalized in 2020? 
-• Yes, for coronavirus (COVID-19) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes, for coronavirus (COVID-19) 
 • Yes, for something else 
 • No </t>
   </si>
   <si>
     <t xml:space="preserve">What source(s) of information do you use and trust to make decisions for your family’s health and safety? Select all that apply. 
-• President Trump  (1)  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• President Trump  (1)  
 • U.S. public health officials &amp; organizations (e.g., Dr. Fauci, CDC)  (2)  
 • Members of the U.S. Congress (i.e., Senators, Congresspeople)  (3)  
 • My state’s governor  (4)  
@@ -210,12 +263,6 @@
 • My family (parents, partner/spouse, extended family members)  (10)  
 • My friends  (11)  
 • Other </t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Occurrence</t>
   </si>
 </sst>
 </file>
@@ -580,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2689D1A7-E07D-A54D-BF8D-68ACF4A3D5C5}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F26" sqref="F22:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -596,202 +643,245 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="170">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="187">
       <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="68">
+    <row r="3" spans="1:3" ht="51">
       <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="102">
+    <row r="4" spans="1:3" ht="68">
       <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="119">
+    <row r="5" spans="1:3" ht="136">
       <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="34">
       <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="187">
+    <row r="7" spans="1:3" ht="221">
       <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="85">
+    <row r="8" spans="1:3" ht="51">
       <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="85">
+    <row r="9" spans="1:3" ht="153">
       <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="85">
+    <row r="10" spans="1:3" ht="68">
       <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="289">
+    <row r="11" spans="1:3" ht="306">
       <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="68">
+    <row r="12" spans="1:3" ht="51">
       <c r="A12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="136">
+    <row r="13" spans="1:3" ht="221">
       <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C13" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="136">
+    <row r="14" spans="1:3" ht="272">
       <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="136">
+    <row r="15" spans="1:3" ht="85">
       <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="102">
+    <row r="16" spans="1:3" ht="68">
       <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="170">
+    <row r="17" spans="1:3" ht="289">
       <c r="A17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="221">
+    <row r="18" spans="1:3" ht="388">
       <c r="A18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="85">
+    <row r="19" spans="1:3" ht="136">
       <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="C19" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="102">
+    <row r="20" spans="1:3" ht="187">
       <c r="A20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="68">
+    <row r="21" spans="1:3" ht="85">
       <c r="A21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="238">
+    <row r="22" spans="1:3" ht="409.6">
       <c r="A22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>